--- a/test/fixtures/files/Sara-Alert-Format-With-Jurisdictions-EW.xlsx
+++ b/test/fixtures/files/Sara-Alert-Format-With-Jurisdictions-EW.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rhack/git/SaraAlert/test/fixtures/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashankland/git/SaraAlert/test/fixtures/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3A56BF-8E22-5042-8CF8-BC1E6A3E7230}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94948570-403C-4149-B4BB-9F899F3565C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="402">
   <si>
     <t>First Name</t>
   </si>
@@ -1217,6 +1217,15 @@
   </si>
   <si>
     <t>Sexual Orientation</t>
+  </si>
+  <si>
+    <t>Race Unknown</t>
+  </si>
+  <si>
+    <t>Race Other</t>
+  </si>
+  <si>
+    <t>Race Refused to Answer</t>
   </si>
 </sst>
 </file>
@@ -1569,10 +1578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CU12"/>
+  <dimension ref="A1:CX12"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="CE1" workbookViewId="0">
-      <selection activeCell="CH11" sqref="CH11"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="CM1" workbookViewId="0">
+      <selection activeCell="CX1" sqref="CX1:CX1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1674,9 +1683,14 @@
     <col min="95" max="95" width="12" bestFit="1" customWidth="1"/>
     <col min="96" max="96" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="97" max="97" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="20" customWidth="1"/>
+    <col min="99" max="99" width="23.5" customWidth="1"/>
+    <col min="100" max="100" width="22.33203125" customWidth="1"/>
+    <col min="101" max="101" width="17.5" customWidth="1"/>
+    <col min="102" max="102" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1974,8 +1988,17 @@
       <c r="CU1" t="s">
         <v>398</v>
       </c>
+      <c r="CV1" t="s">
+        <v>399</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>400</v>
+      </c>
+      <c r="CX1" t="s">
+        <v>401</v>
+      </c>
     </row>
-    <row r="2" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>85</v>
       </c>
@@ -2259,7 +2282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>119</v>
       </c>
@@ -2543,7 +2566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>145</v>
       </c>
@@ -2821,7 +2844,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="5" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>167</v>
       </c>
@@ -3054,7 +3077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>180</v>
       </c>
@@ -3305,7 +3328,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="7" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>201</v>
       </c>
@@ -3562,7 +3585,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="8" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>220</v>
       </c>
@@ -3822,7 +3845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>239</v>
       </c>
@@ -4101,7 +4124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>255</v>
       </c>
@@ -4379,7 +4402,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="11" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>275</v>
       </c>
@@ -4633,7 +4656,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:99" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:102" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>297</v>
       </c>

--- a/test/fixtures/files/Sara-Alert-Format-With-Jurisdictions-EW.xlsx
+++ b/test/fixtures/files/Sara-Alert-Format-With-Jurisdictions-EW.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashankland/git/SaraAlert/test/fixtures/files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twong/Documents/SARA-ALERT/SaraAlert/test/fixtures/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94948570-403C-4149-B4BB-9F899F3565C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE20BD17-C772-5B4C-A1D3-EBA9BC5DE3D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1581,7 +1581,7 @@
   <dimension ref="A1:CX12"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="CM1" workbookViewId="0">
-      <selection activeCell="CX1" sqref="CX1:CX1048576"/>
+      <selection activeCell="CY9" sqref="CY9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1682,12 +1682,12 @@
     <col min="94" max="94" width="16" bestFit="1" customWidth="1"/>
     <col min="95" max="95" width="12" bestFit="1" customWidth="1"/>
     <col min="96" max="96" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="20" customWidth="1"/>
-    <col min="99" max="99" width="23.5" customWidth="1"/>
-    <col min="100" max="100" width="22.33203125" customWidth="1"/>
-    <col min="101" max="101" width="17.5" customWidth="1"/>
-    <col min="102" max="102" width="26.33203125" customWidth="1"/>
+    <col min="97" max="97" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="16" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="21.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:102" x14ac:dyDescent="0.15">
@@ -1989,10 +1989,10 @@
         <v>398</v>
       </c>
       <c r="CV1" t="s">
+        <v>400</v>
+      </c>
+      <c r="CW1" t="s">
         <v>399</v>
-      </c>
-      <c r="CW1" t="s">
-        <v>400</v>
       </c>
       <c r="CX1" t="s">
         <v>401</v>

--- a/test/fixtures/files/Sara-Alert-Format-With-Jurisdictions-EW.xlsx
+++ b/test/fixtures/files/Sara-Alert-Format-With-Jurisdictions-EW.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twong/Documents/SARA-ALERT/SaraAlert/test/fixtures/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE20BD17-C772-5B4C-A1D3-EBA9BC5DE3D3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885F5B4B-1CAB-9C48-A559-DD04507159F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="425">
   <si>
     <t>First Name</t>
   </si>
@@ -1226,6 +1226,75 @@
   </si>
   <si>
     <t>Race Refused to Answer</t>
+  </si>
+  <si>
+    <t>Vaccine 1 Group Name</t>
+  </si>
+  <si>
+    <t>Vaccine 1 Product Name</t>
+  </si>
+  <si>
+    <t>Vaccine 1 Administration Date</t>
+  </si>
+  <si>
+    <t>Vaccine 1 Dose Number</t>
+  </si>
+  <si>
+    <t>Vaccine 1 Notes</t>
+  </si>
+  <si>
+    <t>Vaccine 2 Group Name</t>
+  </si>
+  <si>
+    <t>Vaccine 2 Product Name</t>
+  </si>
+  <si>
+    <t>Vaccine 2 Administration Date</t>
+  </si>
+  <si>
+    <t>Vaccine 2 Dose Number</t>
+  </si>
+  <si>
+    <t>Vaccine 2 Notes</t>
+  </si>
+  <si>
+    <t>COVID-19</t>
+  </si>
+  <si>
+    <t>Moderna COVID-19 Vaccine</t>
+  </si>
+  <si>
+    <t>2020-06-01</t>
+  </si>
+  <si>
+    <t>notes 1</t>
+  </si>
+  <si>
+    <t>2020-06-20</t>
+  </si>
+  <si>
+    <t>notes 2</t>
+  </si>
+  <si>
+    <t>Pfizer-BioNTech COVID-19 Vaccine</t>
+  </si>
+  <si>
+    <t>2020-06-02</t>
+  </si>
+  <si>
+    <t>2020-06-21</t>
+  </si>
+  <si>
+    <t>2020-06-04</t>
+  </si>
+  <si>
+    <t>2020-06-22</t>
+  </si>
+  <si>
+    <t>Janssen (J&amp;J) COVID-19 Vaccine</t>
+  </si>
+  <si>
+    <t>2020-06-03</t>
   </si>
 </sst>
 </file>
@@ -1578,11 +1647,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CX12"/>
+  <dimension ref="A1:DH12"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="CM1" workbookViewId="0">
-      <selection activeCell="CY9" sqref="CY9"/>
-    </sheetView>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1688,9 +1755,19 @@
     <col min="100" max="100" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="101" max="101" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="102" max="102" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="31" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="31" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:102" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1997,8 +2074,38 @@
       <c r="CX1" t="s">
         <v>401</v>
       </c>
+      <c r="CY1" t="s">
+        <v>402</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>403</v>
+      </c>
+      <c r="DA1" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>405</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>406</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>407</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>408</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>410</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>411</v>
+      </c>
     </row>
-    <row r="2" spans="1:102" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>85</v>
       </c>
@@ -2281,8 +2388,38 @@
       <c r="CS2">
         <v>1</v>
       </c>
+      <c r="CY2" t="s">
+        <v>412</v>
+      </c>
+      <c r="CZ2" t="s">
+        <v>413</v>
+      </c>
+      <c r="DA2" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="DB2">
+        <v>1</v>
+      </c>
+      <c r="DC2" t="s">
+        <v>415</v>
+      </c>
+      <c r="DD2" t="s">
+        <v>412</v>
+      </c>
+      <c r="DE2" t="s">
+        <v>413</v>
+      </c>
+      <c r="DF2" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="DG2">
+        <v>2</v>
+      </c>
+      <c r="DH2" t="s">
+        <v>417</v>
+      </c>
     </row>
-    <row r="3" spans="1:102" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>119</v>
       </c>
@@ -2565,8 +2702,32 @@
       <c r="CS3">
         <v>4</v>
       </c>
+      <c r="CY3" t="s">
+        <v>412</v>
+      </c>
+      <c r="CZ3" t="s">
+        <v>418</v>
+      </c>
+      <c r="DA3" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="DB3">
+        <v>1</v>
+      </c>
+      <c r="DD3" t="s">
+        <v>412</v>
+      </c>
+      <c r="DE3" t="s">
+        <v>418</v>
+      </c>
+      <c r="DF3" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="DG3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:102" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>145</v>
       </c>
@@ -2843,8 +3004,32 @@
       <c r="CQ4" t="s">
         <v>323</v>
       </c>
+      <c r="CY4" t="s">
+        <v>412</v>
+      </c>
+      <c r="CZ4" t="s">
+        <v>387</v>
+      </c>
+      <c r="DA4" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="DB4">
+        <v>1</v>
+      </c>
+      <c r="DD4" t="s">
+        <v>412</v>
+      </c>
+      <c r="DE4" t="s">
+        <v>387</v>
+      </c>
+      <c r="DF4" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="DG4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:102" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>167</v>
       </c>
@@ -3076,8 +3261,20 @@
       <c r="CS5">
         <v>4</v>
       </c>
+      <c r="CY5" t="s">
+        <v>412</v>
+      </c>
+      <c r="CZ5" t="s">
+        <v>413</v>
+      </c>
+      <c r="DA5" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="DB5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:102" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>180</v>
       </c>
@@ -3327,8 +3524,20 @@
       <c r="CR6" t="s">
         <v>393</v>
       </c>
+      <c r="CY6" t="s">
+        <v>412</v>
+      </c>
+      <c r="CZ6" t="s">
+        <v>423</v>
+      </c>
+      <c r="DA6" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="DB6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:102" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>201</v>
       </c>
@@ -3584,8 +3793,20 @@
       <c r="CR7" t="s">
         <v>394</v>
       </c>
+      <c r="CY7" t="s">
+        <v>412</v>
+      </c>
+      <c r="CZ7" t="s">
+        <v>387</v>
+      </c>
+      <c r="DA7" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="DB7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:102" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>220</v>
       </c>
@@ -3845,7 +4066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:102" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>239</v>
       </c>
@@ -4124,7 +4345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:102" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>255</v>
       </c>
@@ -4402,7 +4623,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="11" spans="1:102" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>275</v>
       </c>
@@ -4656,7 +4877,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:102" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>297</v>
       </c>

--- a/test/fixtures/files/Sara-Alert-Format-With-Jurisdictions-EW.xlsx
+++ b/test/fixtures/files/Sara-Alert-Format-With-Jurisdictions-EW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twong/Documents/SARA-ALERT/SaraAlert/test/fixtures/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885F5B4B-1CAB-9C48-A559-DD04507159F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FBCDAF-46DB-6347-84A7-535A3BFD7254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monitorees" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="430">
   <si>
     <t>First Name</t>
   </si>
@@ -1295,6 +1295,21 @@
   </si>
   <si>
     <t>2020-06-03</t>
+  </si>
+  <si>
+    <t>Follow-Up Reason</t>
+  </si>
+  <si>
+    <t>Follow-Up Note</t>
+  </si>
+  <si>
+    <t>Needs Interpretation</t>
+  </si>
+  <si>
+    <t>note 1</t>
+  </si>
+  <si>
+    <t>note 2</t>
   </si>
 </sst>
 </file>
@@ -1647,7 +1662,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DH12"/>
+  <dimension ref="A1:DJ12"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0"/>
   </sheetViews>
@@ -1765,9 +1780,11 @@
     <col min="110" max="110" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="111" max="111" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="112" max="112" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2104,8 +2121,14 @@
       <c r="DH1" t="s">
         <v>411</v>
       </c>
+      <c r="DI1" t="s">
+        <v>425</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>426</v>
+      </c>
     </row>
-    <row r="2" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>85</v>
       </c>
@@ -2418,8 +2441,14 @@
       <c r="DH2" t="s">
         <v>417</v>
       </c>
+      <c r="DI2" t="s">
+        <v>427</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>428</v>
+      </c>
     </row>
-    <row r="3" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>119</v>
       </c>
@@ -2726,8 +2755,11 @@
       <c r="DG3">
         <v>2</v>
       </c>
+      <c r="DJ3" t="s">
+        <v>429</v>
+      </c>
     </row>
-    <row r="4" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>145</v>
       </c>
@@ -3029,7 +3061,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>167</v>
       </c>
@@ -3274,7 +3306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>180</v>
       </c>
@@ -3537,7 +3569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>201</v>
       </c>
@@ -3806,7 +3838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>220</v>
       </c>
@@ -4066,7 +4098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>239</v>
       </c>
@@ -4345,7 +4377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>255</v>
       </c>
@@ -4623,7 +4655,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="11" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>275</v>
       </c>
@@ -4877,7 +4909,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>297</v>
       </c>

--- a/test/fixtures/files/Sara-Alert-Format-With-Jurisdictions-EW.xlsx
+++ b/test/fixtures/files/Sara-Alert-Format-With-Jurisdictions-EW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twong/Documents/SARA-ALERT/SaraAlert/test/fixtures/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3FBCDAF-46DB-6347-84A7-535A3BFD7254}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E93576D-C457-F644-8776-B40E87D736BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="431">
   <si>
     <t>First Name</t>
   </si>
@@ -1310,6 +1310,9 @@
   </si>
   <si>
     <t>note 2</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
 </sst>
 </file>
@@ -2755,6 +2758,9 @@
       <c r="DG3">
         <v>2</v>
       </c>
+      <c r="DI3" t="s">
+        <v>430</v>
+      </c>
       <c r="DJ3" t="s">
         <v>429</v>
       </c>

--- a/test/fixtures/files/Sara-Alert-Format-With-Jurisdictions-EW.xlsx
+++ b/test/fixtures/files/Sara-Alert-Format-With-Jurisdictions-EW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twong/Documents/SARA-ALERT/SaraAlert/test/fixtures/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885F5B4B-1CAB-9C48-A559-DD04507159F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E93576D-C457-F644-8776-B40E87D736BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monitorees" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="431">
   <si>
     <t>First Name</t>
   </si>
@@ -1295,6 +1295,24 @@
   </si>
   <si>
     <t>2020-06-03</t>
+  </si>
+  <si>
+    <t>Follow-Up Reason</t>
+  </si>
+  <si>
+    <t>Follow-Up Note</t>
+  </si>
+  <si>
+    <t>Needs Interpretation</t>
+  </si>
+  <si>
+    <t>note 1</t>
+  </si>
+  <si>
+    <t>note 2</t>
+  </si>
+  <si>
+    <t>Other</t>
   </si>
 </sst>
 </file>
@@ -1647,7 +1665,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DH12"/>
+  <dimension ref="A1:DJ12"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0"/>
   </sheetViews>
@@ -1765,9 +1783,11 @@
     <col min="110" max="110" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="111" max="111" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="112" max="112" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2104,8 +2124,14 @@
       <c r="DH1" t="s">
         <v>411</v>
       </c>
+      <c r="DI1" t="s">
+        <v>425</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>426</v>
+      </c>
     </row>
-    <row r="2" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>85</v>
       </c>
@@ -2418,8 +2444,14 @@
       <c r="DH2" t="s">
         <v>417</v>
       </c>
+      <c r="DI2" t="s">
+        <v>427</v>
+      </c>
+      <c r="DJ2" t="s">
+        <v>428</v>
+      </c>
     </row>
-    <row r="3" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>119</v>
       </c>
@@ -2726,8 +2758,14 @@
       <c r="DG3">
         <v>2</v>
       </c>
+      <c r="DI3" t="s">
+        <v>430</v>
+      </c>
+      <c r="DJ3" t="s">
+        <v>429</v>
+      </c>
     </row>
-    <row r="4" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>145</v>
       </c>
@@ -3029,7 +3067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>167</v>
       </c>
@@ -3274,7 +3312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>180</v>
       </c>
@@ -3537,7 +3575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>201</v>
       </c>
@@ -3806,7 +3844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>220</v>
       </c>
@@ -4066,7 +4104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>239</v>
       </c>
@@ -4345,7 +4383,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>255</v>
       </c>
@@ -4623,7 +4661,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="11" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>275</v>
       </c>
@@ -4877,7 +4915,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:112" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:114" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>297</v>
       </c>

--- a/test/fixtures/files/Sara-Alert-Format-With-Jurisdictions-EW.xlsx
+++ b/test/fixtures/files/Sara-Alert-Format-With-Jurisdictions-EW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twong/Documents/SARA-ALERT/SaraAlert/test/fixtures/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E93576D-C457-F644-8776-B40E87D736BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885F5B4B-1CAB-9C48-A559-DD04507159F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monitorees" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="425">
   <si>
     <t>First Name</t>
   </si>
@@ -1295,24 +1295,6 @@
   </si>
   <si>
     <t>2020-06-03</t>
-  </si>
-  <si>
-    <t>Follow-Up Reason</t>
-  </si>
-  <si>
-    <t>Follow-Up Note</t>
-  </si>
-  <si>
-    <t>Needs Interpretation</t>
-  </si>
-  <si>
-    <t>note 1</t>
-  </si>
-  <si>
-    <t>note 2</t>
-  </si>
-  <si>
-    <t>Other</t>
   </si>
 </sst>
 </file>
@@ -1665,7 +1647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DJ12"/>
+  <dimension ref="A1:DH12"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0"/>
   </sheetViews>
@@ -1783,11 +1765,9 @@
     <col min="110" max="110" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="111" max="111" width="21.1640625" bestFit="1" customWidth="1"/>
     <col min="112" max="112" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="113" max="113" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:114" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2124,14 +2104,8 @@
       <c r="DH1" t="s">
         <v>411</v>
       </c>
-      <c r="DI1" t="s">
-        <v>425</v>
-      </c>
-      <c r="DJ1" t="s">
-        <v>426</v>
-      </c>
     </row>
-    <row r="2" spans="1:114" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>85</v>
       </c>
@@ -2444,14 +2418,8 @@
       <c r="DH2" t="s">
         <v>417</v>
       </c>
-      <c r="DI2" t="s">
-        <v>427</v>
-      </c>
-      <c r="DJ2" t="s">
-        <v>428</v>
-      </c>
     </row>
-    <row r="3" spans="1:114" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>119</v>
       </c>
@@ -2758,14 +2726,8 @@
       <c r="DG3">
         <v>2</v>
       </c>
-      <c r="DI3" t="s">
-        <v>430</v>
-      </c>
-      <c r="DJ3" t="s">
-        <v>429</v>
-      </c>
     </row>
-    <row r="4" spans="1:114" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>145</v>
       </c>
@@ -3067,7 +3029,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:114" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>167</v>
       </c>
@@ -3312,7 +3274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:114" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>180</v>
       </c>
@@ -3575,7 +3537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:114" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>201</v>
       </c>
@@ -3844,7 +3806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:114" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>220</v>
       </c>
@@ -4104,7 +4066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:114" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>239</v>
       </c>
@@ -4383,7 +4345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:114" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>255</v>
       </c>
@@ -4661,7 +4623,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="11" spans="1:114" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>275</v>
       </c>
@@ -4915,7 +4877,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:114" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:112" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>297</v>
       </c>

--- a/test/fixtures/files/Sara-Alert-Format-With-Jurisdictions-EW.xlsx
+++ b/test/fixtures/files/Sara-Alert-Format-With-Jurisdictions-EW.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twong/Documents/SARA-ALERT/SaraAlert/test/fixtures/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E93576D-C457-F644-8776-B40E87D736BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BC9C12-27FC-E14C-AA3A-4ABC366E6EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/test/fixtures/files/Sara-Alert-Format-With-Jurisdictions-EW.xlsx
+++ b/test/fixtures/files/Sara-Alert-Format-With-Jurisdictions-EW.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/twong/Documents/SARA-ALERT/SaraAlert/test/fixtures/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BC9C12-27FC-E14C-AA3A-4ABC366E6EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1A3D8E-D840-C349-AEDE-614CBCC63CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="436">
   <si>
     <t>First Name</t>
   </si>
@@ -1313,6 +1313,21 @@
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>Noon</t>
+  </si>
+  <si>
+    <t>Midnight</t>
+  </si>
+  <si>
+    <t>00:00</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>03:00</t>
   </si>
 </sst>
 </file>
@@ -2276,7 +2291,7 @@
       <c r="AV2" t="s">
         <v>104</v>
       </c>
-      <c r="AW2" t="s">
+      <c r="AW2" s="1" t="s">
         <v>94</v>
       </c>
       <c r="AX2" t="s">
@@ -2593,7 +2608,7 @@
       <c r="AV3" t="s">
         <v>104</v>
       </c>
-      <c r="AW3" t="s">
+      <c r="AW3" s="1" t="s">
         <v>357</v>
       </c>
       <c r="AX3" t="s">
@@ -2907,7 +2922,7 @@
       <c r="AV4" t="s">
         <v>104</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="AW4" s="1" t="s">
         <v>94</v>
       </c>
       <c r="AX4" t="s">
@@ -3212,7 +3227,7 @@
       <c r="AV5" t="s">
         <v>104</v>
       </c>
-      <c r="AW5" t="s">
+      <c r="AW5" s="1" t="s">
         <v>358</v>
       </c>
       <c r="AX5" t="s">
@@ -3436,7 +3451,7 @@
       <c r="AV6" t="s">
         <v>104</v>
       </c>
-      <c r="AW6" t="s">
+      <c r="AW6" s="1" t="s">
         <v>94</v>
       </c>
       <c r="AX6" t="s">
@@ -3696,7 +3711,7 @@
       <c r="AV7" t="s">
         <v>158</v>
       </c>
-      <c r="AW7" t="s">
+      <c r="AW7" s="1" t="s">
         <v>359</v>
       </c>
       <c r="AX7" t="s">
@@ -3989,8 +4004,8 @@
       <c r="AV8" t="s">
         <v>104</v>
       </c>
-      <c r="AW8" t="s">
-        <v>94</v>
+      <c r="AW8" s="1" t="s">
+        <v>431</v>
       </c>
       <c r="AX8" t="s">
         <v>232</v>
@@ -4249,8 +4264,8 @@
       <c r="AV9" t="s">
         <v>103</v>
       </c>
-      <c r="AW9" t="s">
-        <v>94</v>
+      <c r="AW9" s="1" t="s">
+        <v>432</v>
       </c>
       <c r="AX9" t="s">
         <v>248</v>
@@ -4528,8 +4543,8 @@
       <c r="AV10" t="s">
         <v>104</v>
       </c>
-      <c r="AW10" t="s">
-        <v>94</v>
+      <c r="AW10" s="1" t="s">
+        <v>433</v>
       </c>
       <c r="AX10" t="s">
         <v>268</v>
@@ -4779,8 +4794,8 @@
       <c r="AV11" t="s">
         <v>104</v>
       </c>
-      <c r="AW11" t="s">
-        <v>94</v>
+      <c r="AW11" s="1" t="s">
+        <v>434</v>
       </c>
       <c r="AX11" t="s">
         <v>284</v>
@@ -5005,6 +5020,9 @@
       </c>
       <c r="AV12" t="s">
         <v>104</v>
+      </c>
+      <c r="AW12" s="1" t="s">
+        <v>435</v>
       </c>
       <c r="BO12" t="s">
         <v>112</v>
